--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_mc_shared_relu.xlsx
@@ -497,16 +497,16 @@
         <v>72.83333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>141.0700531005859</v>
+        <v>149.9666290283203</v>
       </c>
       <c r="G2" t="n">
-        <v>57.8842658996582</v>
+        <v>50.07661437988281</v>
       </c>
       <c r="H2" t="n">
-        <v>-206.9545745849609</v>
+        <v>-221.5267639160156</v>
       </c>
       <c r="I2" t="n">
-        <v>82.68667602539062</v>
+        <v>88.23065948486328</v>
       </c>
     </row>
     <row r="3">
@@ -526,16 +526,16 @@
         <v>70.40000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>135.6597595214844</v>
+        <v>147.2302856445312</v>
       </c>
       <c r="G3" t="n">
-        <v>59.40299224853516</v>
+        <v>51.39018630981445</v>
       </c>
       <c r="H3" t="n">
-        <v>-190.8487548828125</v>
+        <v>-206.1971130371094</v>
       </c>
       <c r="I3" t="n">
-        <v>79.45856475830078</v>
+        <v>93.74055480957031</v>
       </c>
     </row>
     <row r="4">
@@ -555,16 +555,16 @@
         <v>67.96666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>130.1124114990234</v>
+        <v>137.8814849853516</v>
       </c>
       <c r="G4" t="n">
-        <v>54.57113647460938</v>
+        <v>53.9490966796875</v>
       </c>
       <c r="H4" t="n">
-        <v>-176.4349975585938</v>
+        <v>-189.1701354980469</v>
       </c>
       <c r="I4" t="n">
-        <v>79.13982391357422</v>
+        <v>93.84848785400391</v>
       </c>
     </row>
     <row r="5">
@@ -584,16 +584,16 @@
         <v>65.53333333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>125.2356109619141</v>
+        <v>132.5742492675781</v>
       </c>
       <c r="G5" t="n">
-        <v>58.35038375854492</v>
+        <v>54.86378860473633</v>
       </c>
       <c r="H5" t="n">
-        <v>-160.0237426757812</v>
+        <v>-170.2837219238281</v>
       </c>
       <c r="I5" t="n">
-        <v>78.8985595703125</v>
+        <v>93.43621826171875</v>
       </c>
     </row>
     <row r="6">
@@ -613,16 +613,16 @@
         <v>63.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>119.4726409912109</v>
+        <v>127.7885513305664</v>
       </c>
       <c r="G6" t="n">
-        <v>55.7679328918457</v>
+        <v>54.78374481201172</v>
       </c>
       <c r="H6" t="n">
-        <v>-135.2648773193359</v>
+        <v>-157.8809051513672</v>
       </c>
       <c r="I6" t="n">
-        <v>76.15018463134766</v>
+        <v>94.13126373291016</v>
       </c>
     </row>
     <row r="7">
@@ -642,16 +642,16 @@
         <v>60.66666666666666</v>
       </c>
       <c r="F7" t="n">
-        <v>115.065544128418</v>
+        <v>121.179801940918</v>
       </c>
       <c r="G7" t="n">
-        <v>57.05714416503906</v>
+        <v>54.19050598144531</v>
       </c>
       <c r="H7" t="n">
-        <v>-128.7630004882812</v>
+        <v>-136.2786254882812</v>
       </c>
       <c r="I7" t="n">
-        <v>74.22832489013672</v>
+        <v>92.77742004394531</v>
       </c>
     </row>
     <row r="8">
@@ -671,16 +671,16 @@
         <v>58.23333333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>106.0415420532227</v>
+        <v>115.8544387817383</v>
       </c>
       <c r="G8" t="n">
-        <v>56.50873947143555</v>
+        <v>55.6988639831543</v>
       </c>
       <c r="H8" t="n">
-        <v>-106.1339263916016</v>
+        <v>-121.0601272583008</v>
       </c>
       <c r="I8" t="n">
-        <v>74.24447631835938</v>
+        <v>89.73574829101562</v>
       </c>
     </row>
     <row r="9">
@@ -700,16 +700,16 @@
         <v>55.8</v>
       </c>
       <c r="F9" t="n">
-        <v>101.7978363037109</v>
+        <v>110.1717300415039</v>
       </c>
       <c r="G9" t="n">
-        <v>58.91094207763672</v>
+        <v>60.70175170898438</v>
       </c>
       <c r="H9" t="n">
-        <v>-92.53598022460938</v>
+        <v>-106.7868194580078</v>
       </c>
       <c r="I9" t="n">
-        <v>72.48421478271484</v>
+        <v>84.70481109619141</v>
       </c>
     </row>
     <row r="10">
@@ -729,16 +729,16 @@
         <v>53.36666666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>98.14013671875</v>
+        <v>105.3925933837891</v>
       </c>
       <c r="G10" t="n">
-        <v>57.94161987304688</v>
+        <v>59.98851013183594</v>
       </c>
       <c r="H10" t="n">
-        <v>-75.16465759277344</v>
+        <v>-94.8433837890625</v>
       </c>
       <c r="I10" t="n">
-        <v>69.45404815673828</v>
+        <v>81.36472320556641</v>
       </c>
     </row>
     <row r="11">
@@ -758,16 +758,16 @@
         <v>50.93333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>90.58795928955078</v>
+        <v>105.1656112670898</v>
       </c>
       <c r="G11" t="n">
-        <v>58.96878814697266</v>
+        <v>59.02313995361328</v>
       </c>
       <c r="H11" t="n">
-        <v>-59.19782638549805</v>
+        <v>-81.20409393310547</v>
       </c>
       <c r="I11" t="n">
-        <v>67.97735595703125</v>
+        <v>79.50965881347656</v>
       </c>
     </row>
     <row r="12">
@@ -787,16 +787,16 @@
         <v>48.49999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>84.57937622070312</v>
+        <v>99.24679565429688</v>
       </c>
       <c r="G12" t="n">
-        <v>58.77775573730469</v>
+        <v>60.69192886352539</v>
       </c>
       <c r="H12" t="n">
-        <v>-51.67388534545898</v>
+        <v>-67.98699188232422</v>
       </c>
       <c r="I12" t="n">
-        <v>67.27106475830078</v>
+        <v>74.54388427734375</v>
       </c>
     </row>
     <row r="13">
@@ -816,16 +816,16 @@
         <v>46.06666666666666</v>
       </c>
       <c r="F13" t="n">
-        <v>81.701171875</v>
+        <v>94.71572875976562</v>
       </c>
       <c r="G13" t="n">
-        <v>58.78573608398438</v>
+        <v>65.1248779296875</v>
       </c>
       <c r="H13" t="n">
-        <v>-40.68114852905273</v>
+        <v>-61.37052154541016</v>
       </c>
       <c r="I13" t="n">
-        <v>67.02897644042969</v>
+        <v>74.06800842285156</v>
       </c>
     </row>
     <row r="14">
@@ -845,16 +845,16 @@
         <v>43.63333333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>77.07406616210938</v>
+        <v>88.78982543945312</v>
       </c>
       <c r="G14" t="n">
-        <v>62.32963943481445</v>
+        <v>62.57002258300781</v>
       </c>
       <c r="H14" t="n">
-        <v>-38.17719650268555</v>
+        <v>-50.76688385009766</v>
       </c>
       <c r="I14" t="n">
-        <v>62.77254867553711</v>
+        <v>70.6917724609375</v>
       </c>
     </row>
     <row r="15">
@@ -874,16 +874,16 @@
         <v>41.2</v>
       </c>
       <c r="F15" t="n">
-        <v>73.38831329345703</v>
+        <v>84.56549072265625</v>
       </c>
       <c r="G15" t="n">
-        <v>61.05057907104492</v>
+        <v>62.96391677856445</v>
       </c>
       <c r="H15" t="n">
-        <v>-30.90983772277832</v>
+        <v>-41.68828964233398</v>
       </c>
       <c r="I15" t="n">
-        <v>59.79512405395508</v>
+        <v>68.21553039550781</v>
       </c>
     </row>
     <row r="16">
@@ -903,16 +903,16 @@
         <v>38.76666666666667</v>
       </c>
       <c r="F16" t="n">
-        <v>64.54434967041016</v>
+        <v>79.03492736816406</v>
       </c>
       <c r="G16" t="n">
-        <v>66.33385467529297</v>
+        <v>69.08535003662109</v>
       </c>
       <c r="H16" t="n">
-        <v>-24.75099945068359</v>
+        <v>-36.6914176940918</v>
       </c>
       <c r="I16" t="n">
-        <v>59.36879730224609</v>
+        <v>63.36373138427734</v>
       </c>
     </row>
     <row r="17">
@@ -932,16 +932,16 @@
         <v>36.33333333333334</v>
       </c>
       <c r="F17" t="n">
-        <v>58.56707763671875</v>
+        <v>72.94662475585938</v>
       </c>
       <c r="G17" t="n">
-        <v>66.32756042480469</v>
+        <v>67.12367248535156</v>
       </c>
       <c r="H17" t="n">
-        <v>-23.86549186706543</v>
+        <v>-34.87661361694336</v>
       </c>
       <c r="I17" t="n">
-        <v>55.10305023193359</v>
+        <v>60.58347702026367</v>
       </c>
     </row>
     <row r="18">
@@ -961,16 +961,16 @@
         <v>33.90000000000002</v>
       </c>
       <c r="F18" t="n">
-        <v>56.5787353515625</v>
+        <v>67.38148498535156</v>
       </c>
       <c r="G18" t="n">
-        <v>67.32075500488281</v>
+        <v>72.24980163574219</v>
       </c>
       <c r="H18" t="n">
-        <v>-18.99542045593262</v>
+        <v>-30.6135196685791</v>
       </c>
       <c r="I18" t="n">
-        <v>53.87413787841797</v>
+        <v>60.51078796386719</v>
       </c>
     </row>
     <row r="19">
@@ -990,16 +990,16 @@
         <v>31.46666666666668</v>
       </c>
       <c r="F19" t="n">
-        <v>53.08229446411133</v>
+        <v>62.5953369140625</v>
       </c>
       <c r="G19" t="n">
-        <v>67.81011199951172</v>
+        <v>72.85591888427734</v>
       </c>
       <c r="H19" t="n">
-        <v>-18.5682315826416</v>
+        <v>-25.74248886108398</v>
       </c>
       <c r="I19" t="n">
-        <v>56.16302490234375</v>
+        <v>59.71139144897461</v>
       </c>
     </row>
     <row r="20">
@@ -1019,16 +1019,16 @@
         <v>29.03333333333335</v>
       </c>
       <c r="F20" t="n">
-        <v>46.98960494995117</v>
+        <v>60.84593200683594</v>
       </c>
       <c r="G20" t="n">
-        <v>69.49070739746094</v>
+        <v>75.91707611083984</v>
       </c>
       <c r="H20" t="n">
-        <v>-19.66611289978027</v>
+        <v>-25.75249862670898</v>
       </c>
       <c r="I20" t="n">
-        <v>56.44375228881836</v>
+        <v>59.08641052246094</v>
       </c>
     </row>
     <row r="21">
@@ -1048,16 +1048,16 @@
         <v>26.60000000000002</v>
       </c>
       <c r="F21" t="n">
-        <v>40.04097747802734</v>
+        <v>58.29237747192383</v>
       </c>
       <c r="G21" t="n">
-        <v>73.78604888916016</v>
+        <v>77.46915435791016</v>
       </c>
       <c r="H21" t="n">
-        <v>-17.25118637084961</v>
+        <v>-22.10322570800781</v>
       </c>
       <c r="I21" t="n">
-        <v>55.63500595092773</v>
+        <v>56.71463394165039</v>
       </c>
     </row>
     <row r="22">
@@ -1077,16 +1077,16 @@
         <v>24.16666666666669</v>
       </c>
       <c r="F22" t="n">
-        <v>37.98547744750977</v>
+        <v>50.51521301269531</v>
       </c>
       <c r="G22" t="n">
-        <v>75.79139709472656</v>
+        <v>77.89717102050781</v>
       </c>
       <c r="H22" t="n">
-        <v>-17.4079761505127</v>
+        <v>-22.58438110351562</v>
       </c>
       <c r="I22" t="n">
-        <v>55.85459899902344</v>
+        <v>54.7276611328125</v>
       </c>
     </row>
     <row r="23">
@@ -1106,16 +1106,16 @@
         <v>21.73333333333335</v>
       </c>
       <c r="F23" t="n">
-        <v>33.44054412841797</v>
+        <v>47.66242980957031</v>
       </c>
       <c r="G23" t="n">
-        <v>74.67676544189453</v>
+        <v>82.21118927001953</v>
       </c>
       <c r="H23" t="n">
-        <v>-20.2310619354248</v>
+        <v>-23.2839469909668</v>
       </c>
       <c r="I23" t="n">
-        <v>54.22626876831055</v>
+        <v>58.13045501708984</v>
       </c>
     </row>
     <row r="24">
@@ -1135,16 +1135,16 @@
         <v>19.30000000000003</v>
       </c>
       <c r="F24" t="n">
-        <v>31.61110305786133</v>
+        <v>41.23880767822266</v>
       </c>
       <c r="G24" t="n">
-        <v>76.52992248535156</v>
+        <v>82.89308929443359</v>
       </c>
       <c r="H24" t="n">
-        <v>-19.7893238067627</v>
+        <v>-22.72920036315918</v>
       </c>
       <c r="I24" t="n">
-        <v>55.36892700195312</v>
+        <v>58.06857299804688</v>
       </c>
     </row>
     <row r="25">
@@ -1164,16 +1164,16 @@
         <v>16.86666666666669</v>
       </c>
       <c r="F25" t="n">
-        <v>25.64991569519043</v>
+        <v>41.3024787902832</v>
       </c>
       <c r="G25" t="n">
-        <v>80.26406097412109</v>
+        <v>83.13634490966797</v>
       </c>
       <c r="H25" t="n">
-        <v>-22.01207733154297</v>
+        <v>-24.95348167419434</v>
       </c>
       <c r="I25" t="n">
-        <v>55.77191925048828</v>
+        <v>55.95609664916992</v>
       </c>
     </row>
     <row r="26">
@@ -1193,16 +1193,16 @@
         <v>14.43333333333337</v>
       </c>
       <c r="F26" t="n">
-        <v>24.14316368103027</v>
+        <v>29.68852615356445</v>
       </c>
       <c r="G26" t="n">
-        <v>81.3560791015625</v>
+        <v>83.02809143066406</v>
       </c>
       <c r="H26" t="n">
-        <v>-25.74308586120605</v>
+        <v>-23.1454906463623</v>
       </c>
       <c r="I26" t="n">
-        <v>56.13160705566406</v>
+        <v>58.76073455810547</v>
       </c>
     </row>
     <row r="27">
@@ -1222,16 +1222,16 @@
         <v>12.00000000000003</v>
       </c>
       <c r="F27" t="n">
-        <v>14.82145500183105</v>
+        <v>31.61860275268555</v>
       </c>
       <c r="G27" t="n">
-        <v>83.09759521484375</v>
+        <v>86.40510559082031</v>
       </c>
       <c r="H27" t="n">
-        <v>-26.10687255859375</v>
+        <v>-24.44106864929199</v>
       </c>
       <c r="I27" t="n">
-        <v>57.59407043457031</v>
+        <v>58.28476715087891</v>
       </c>
     </row>
     <row r="28">
@@ -1251,16 +1251,16 @@
         <v>9.566666666666691</v>
       </c>
       <c r="F28" t="n">
-        <v>12.70033836364746</v>
+        <v>29.37416648864746</v>
       </c>
       <c r="G28" t="n">
-        <v>85.71760559082031</v>
+        <v>86.30355072021484</v>
       </c>
       <c r="H28" t="n">
-        <v>-27.4264965057373</v>
+        <v>-26.16587066650391</v>
       </c>
       <c r="I28" t="n">
-        <v>59.41128158569336</v>
+        <v>59.17243957519531</v>
       </c>
     </row>
     <row r="29">
@@ -1280,16 +1280,16 @@
         <v>7.133333333333354</v>
       </c>
       <c r="F29" t="n">
-        <v>4.945480346679688</v>
+        <v>22.24655914306641</v>
       </c>
       <c r="G29" t="n">
-        <v>87.59323883056641</v>
+        <v>89.78363800048828</v>
       </c>
       <c r="H29" t="n">
-        <v>-32.03432464599609</v>
+        <v>-28.26829147338867</v>
       </c>
       <c r="I29" t="n">
-        <v>58.16839599609375</v>
+        <v>61.80253601074219</v>
       </c>
     </row>
     <row r="30">
@@ -1309,16 +1309,16 @@
         <v>4.700000000000017</v>
       </c>
       <c r="F30" t="n">
-        <v>4.537643432617188</v>
+        <v>20.1815357208252</v>
       </c>
       <c r="G30" t="n">
-        <v>86.43428039550781</v>
+        <v>92.40776824951172</v>
       </c>
       <c r="H30" t="n">
-        <v>-37.28812408447266</v>
+        <v>-30.86675453186035</v>
       </c>
       <c r="I30" t="n">
-        <v>57.85396194458008</v>
+        <v>61.13248825073242</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_mc_shared_relu.xlsx
@@ -497,16 +497,16 @@
         <v>50.93333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>90.14558410644531</v>
+        <v>93.64630126953125</v>
       </c>
       <c r="G2" t="n">
-        <v>63.96603393554688</v>
+        <v>39.73917007446289</v>
       </c>
       <c r="H2" t="n">
-        <v>-49.17960357666016</v>
+        <v>-78.65850067138672</v>
       </c>
       <c r="I2" t="n">
-        <v>68.12180328369141</v>
+        <v>59.46961975097656</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_mc_shared_relu.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,16 +497,16 @@
         <v>50.93333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>93.64630126953125</v>
+        <v>93.09371185302734</v>
       </c>
       <c r="G2" t="n">
-        <v>39.73917007446289</v>
+        <v>39.82363891601562</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.65850067138672</v>
+        <v>-78.97941589355469</v>
       </c>
       <c r="I2" t="n">
-        <v>59.46961975097656</v>
+        <v>60.77807998657227</v>
       </c>
     </row>
   </sheetData>
